--- a/data/trans_orig/P14C10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDA9CE6-BBE6-4D63-B3AC-932240E5535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C66AA2-5A86-411D-A241-358FAD6409B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FC56C1A-0D99-4EDE-AA63-1F9D7CD00701}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CD16BE-4725-462F-8C9F-A6CF2D6B3217}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="210">
   <si>
     <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>64,69%</t>
+    <t>69,09%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>5,54%</t>
   </si>
   <si>
-    <t>26,25%</t>
+    <t>26,26%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,7 +128,7 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>23,76%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,76 +137,76 @@
     <t>48,31%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>28,31%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>22,05%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -215,70 +215,67 @@
     <t>73,6%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>64,86%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>26,4%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>51,57%</t>
+    <t>52,82%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>18,52%</t>
+    <t>15,8%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -290,19 +287,19 @@
     <t>81,37%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -311,31 +308,31 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>12,66%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -344,7 +341,7 @@
     <t>81,87%</t>
   </si>
   <si>
-    <t>23,15%</t>
+    <t>23,86%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -353,13 +350,13 @@
     <t>90,68%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>57,6%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>76,85%</t>
+    <t>76,14%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -368,7 +365,7 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>41,63%</t>
+    <t>42,4%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -380,7 +377,7 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>21,3%</t>
   </si>
   <si>
     <t>43,27%</t>
@@ -395,16 +392,16 @@
     <t>52,03%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>79,43%</t>
+    <t>78,7%</t>
   </si>
   <si>
     <t>48,8%</t>
@@ -419,10 +416,10 @@
     <t>42,43%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -434,7 +431,7 @@
     <t>32,5%</t>
   </si>
   <si>
-    <t>22,72%</t>
+    <t>30,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -443,52 +440,52 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>24,85%</t>
+    <t>25,02%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -497,13 +494,13 @@
     <t>4,84%</t>
   </si>
   <si>
-    <t>28,74%</t>
+    <t>20,42%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>13,09%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -512,160 +509,160 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>23,49%</t>
+    <t>24,59%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1080,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E10E13-CA44-4A72-8A2C-90A58E7881FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140769D2-F932-4A86-AB9E-8A7AB8513510}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1733,13 +1730,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1748,13 +1745,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,7 +1807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1825,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1837,13 +1834,13 @@
         <v>27507</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1852,13 +1849,13 @@
         <v>41794</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,7 +1876,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1888,13 +1885,13 @@
         <v>1933</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1903,13 +1900,13 @@
         <v>1933</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1939,13 +1936,13 @@
         <v>4366</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1954,13 +1951,13 @@
         <v>4366</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2013,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2028,10 +2025,10 @@
         <v>3608</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -2046,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -2058,10 +2055,10 @@
         <v>7777</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -2079,13 +2076,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2100,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2109,13 +2106,13 @@
         <v>799</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2151,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2234,10 +2231,10 @@
         <v>4696</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>11</v>
@@ -2249,13 +2246,13 @@
         <v>6513</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2264,13 +2261,13 @@
         <v>11209</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2282,13 @@
         <v>1796</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2300,13 +2297,13 @@
         <v>7345</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2315,13 +2312,13 @@
         <v>9141</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2339,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2351,13 +2348,13 @@
         <v>1194</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2372,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,7 +2425,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2440,13 +2437,13 @@
         <v>14946</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2455,13 +2452,13 @@
         <v>22861</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -2470,13 +2467,13 @@
         <v>37807</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2488,13 @@
         <v>7140</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2506,13 +2503,13 @@
         <v>2121</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2521,13 +2518,13 @@
         <v>9261</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2557,13 +2554,13 @@
         <v>1271</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2572,13 +2569,13 @@
         <v>1271</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2631,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2646,13 +2643,13 @@
         <v>23036</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2661,13 +2658,13 @@
         <v>24038</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M32" s="7">
         <v>44</v>
@@ -2676,13 +2673,13 @@
         <v>47074</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2694,13 @@
         <v>5203</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2712,13 +2709,13 @@
         <v>5890</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -2727,13 +2724,13 @@
         <v>11092</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2745,13 @@
         <v>5269</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -2763,13 +2760,13 @@
         <v>2384</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2778,13 +2775,13 @@
         <v>7654</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2849,13 @@
         <v>91515</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>96</v>
@@ -2867,13 +2864,13 @@
         <v>111537</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>188</v>
@@ -2882,13 +2879,13 @@
         <v>203052</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2900,13 @@
         <v>27989</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -2918,13 +2915,13 @@
         <v>31076</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -2933,13 +2930,13 @@
         <v>59065</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2951,13 @@
         <v>7187</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -2969,13 +2966,13 @@
         <v>12075</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -2984,13 +2981,13 @@
         <v>19262</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3043,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C66AA2-5A86-411D-A241-358FAD6409B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AAF41E5-28F5-45C2-BAC5-5BEDF3F509AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CD16BE-4725-462F-8C9F-A6CF2D6B3217}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A79844C-FFA0-445A-B6F9-68975AA24E0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="210">
   <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 3,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,13 +83,13 @@
     <t>81,76%</t>
   </si>
   <si>
-    <t>44,13%</t>
+    <t>51,44%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>69,09%</t>
+    <t>68,48%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>41,22%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>26,26%</t>
+    <t>27,38%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -122,13 +122,13 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>44,72%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>23,68%</t>
+    <t>21,34%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,76 +137,76 @@
     <t>48,31%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>28,31%</t>
+    <t>32,47%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -215,67 +215,70 @@
     <t>73,6%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>64,86%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>26,4%</t>
   </si>
   <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>52,82%</t>
+    <t>53,27%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>15,8%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -287,19 +290,19 @@
     <t>81,37%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -308,31 +311,31 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>19,03%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>13,99%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -350,7 +353,7 @@
     <t>90,68%</t>
   </si>
   <si>
-    <t>57,6%</t>
+    <t>58,13%</t>
   </si>
   <si>
     <t>18,13%</t>
@@ -365,7 +368,7 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>42,4%</t>
+    <t>41,87%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -377,49 +380,49 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>17,06%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>82,94%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -428,10 +431,10 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -440,52 +443,52 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>25,02%</t>
+    <t>28,94%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -494,13 +497,13 @@
     <t>4,84%</t>
   </si>
   <si>
-    <t>20,42%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>13,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -509,160 +512,157 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>22,77%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140769D2-F932-4A86-AB9E-8A7AB8513510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30FB66-5261-44AC-98E4-D62ADC9DB1E6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1730,13 +1730,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1745,13 +1745,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1834,13 +1834,13 @@
         <v>27507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1849,13 +1849,13 @@
         <v>41794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1885,13 +1885,13 @@
         <v>1933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1900,13 +1900,13 @@
         <v>1933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1936,13 +1936,13 @@
         <v>4366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1951,13 +1951,13 @@
         <v>4366</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2025,10 +2025,10 @@
         <v>3608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -2055,10 +2055,10 @@
         <v>7777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -2076,13 +2076,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2106,13 +2106,13 @@
         <v>799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2231,10 +2231,10 @@
         <v>4696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>11</v>
@@ -2246,13 +2246,13 @@
         <v>6513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2261,13 +2261,13 @@
         <v>11209</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2282,13 @@
         <v>1796</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2297,13 +2297,13 @@
         <v>7345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2312,13 +2312,13 @@
         <v>9141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2348,13 +2348,13 @@
         <v>1194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2437,13 @@
         <v>14946</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2452,13 +2452,13 @@
         <v>22861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -2467,13 +2467,13 @@
         <v>37807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2488,13 @@
         <v>7140</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2503,13 +2503,13 @@
         <v>2121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2518,13 +2518,13 @@
         <v>9261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2554,13 +2554,13 @@
         <v>1271</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2569,13 +2569,13 @@
         <v>1271</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2643,13 @@
         <v>23036</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2658,13 +2658,13 @@
         <v>24038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M32" s="7">
         <v>44</v>
@@ -2673,13 +2673,13 @@
         <v>47074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>5203</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2709,13 +2709,13 @@
         <v>5890</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -2724,13 +2724,13 @@
         <v>11092</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>5269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -2760,13 +2760,13 @@
         <v>2384</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2775,13 +2775,13 @@
         <v>7654</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2849,13 @@
         <v>91515</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>96</v>
@@ -2864,13 +2864,13 @@
         <v>111537</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>188</v>
@@ -2879,13 +2879,13 @@
         <v>203052</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2900,13 @@
         <v>27989</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -2915,13 +2915,13 @@
         <v>31076</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -2930,13 +2930,13 @@
         <v>59065</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2951,13 @@
         <v>7187</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -2966,13 +2966,13 @@
         <v>12075</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -2981,13 +2981,13 @@
         <v>19262</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
